--- a/i_test/test_D6_Table_2/g_output/D6_Table_2_broad.xlsx
+++ b/i_test/test_D6_Table_2/g_output/D6_Table_2_broad.xlsx
@@ -392,27 +392,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>996</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -424,27 +424,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>570 (46.5%)</t>
+          <t>457 (45.9%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>290 (43.5%)</t>
+          <t>246 (42.9%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79 (50%)</t>
+          <t>66 (50%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>520 (42%)</t>
+          <t>456 (41.7%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>104 (39.8%)</t>
+          <t>94 (40%)</t>
         </is>
       </c>
     </row>
@@ -456,27 +456,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>80.1 (9.3)</t>
+          <t>79.9 (9.4)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80.2 (9)</t>
+          <t>80 (9.1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.5 (8.8)</t>
+          <t>80.5 (9.3)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.8 (9.8)</t>
+          <t>79.8 (9.7)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79.7 (9.8)</t>
+          <t>79.7 (10.1)</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2 (0.2%)</t>
+          <t>1 (0.1%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -520,22 +520,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3 (0.2%)</t>
+          <t>3 (0.3%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4 (0.6%)</t>
+          <t>4 (0.7%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3 (0.2%)</t>
+          <t>3 (0.3%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -584,27 +584,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>450 (36.7%)</t>
+          <t>378 (38%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>233 (34.9%)</t>
+          <t>206 (35.9%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53 (33.5%)</t>
+          <t>44 (33.3%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>478 (38.6%)</t>
+          <t>421 (38.5%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>104 (39.8%)</t>
+          <t>91 (38.7%)</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>736 (60%)</t>
+          <t>584 (58.6%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>416 (62.4%)</t>
+          <t>352 (61.3%)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>102 (64.6%)</t>
+          <t>85 (64.4%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>717 (57.9%)</t>
+          <t>634 (58%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>149 (57.1%)</t>
+          <t>136 (57.9%)</t>
         </is>
       </c>
     </row>
@@ -680,27 +680,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>486 (39.6%)</t>
+          <t>449 (45.1%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>274 (41.1%)</t>
+          <t>264 (46%)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82 (51.9%)</t>
+          <t>76 (57.6%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>503 (40.6%)</t>
+          <t>471 (43.1%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>110 (42.1%)</t>
+          <t>106 (45.1%)</t>
         </is>
       </c>
     </row>
